--- a/exsample.xlsx
+++ b/exsample.xlsx
@@ -1028,7 +1028,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7103" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7075" uniqueCount="880">
   <si>
     <t>id</t>
   </si>
@@ -4050,7 +4050,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4383,21 +4383,6 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5561,14 +5546,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6102CFEF-D75F-462F-8D42-83B1B0352520}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FFFFC000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:BL207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="55" zoomScaleNormal="55" workbookViewId="0" xr3:uid="{2F9C85E1-289C-5551-BAFF-84EBD2BE2D8D}">
-      <selection activeCell="BA198" sqref="BA198"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="55" zoomScaleNormal="55" workbookViewId="0" xr3:uid="{2F9C85E1-289C-5551-BAFF-84EBD2BE2D8D}">
+      <selection activeCell="BD173" sqref="BD173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="27.95" customHeight="1"/>
@@ -8653,7 +8638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:63" ht="27.95" hidden="1" customHeight="1">
+    <row r="17" spans="1:63" ht="27.95" customHeight="1">
       <c r="A17" s="82" t="s">
         <v>56</v>
       </c>
@@ -11167,7 +11152,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:63" ht="27.95" hidden="1" customHeight="1">
+    <row r="30" spans="1:63" ht="27.95" customHeight="1">
       <c r="A30" s="82" t="s">
         <v>70</v>
       </c>
@@ -14248,7 +14233,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:64" s="72" customFormat="1" ht="27.95" hidden="1" customHeight="1">
+    <row r="45" spans="1:64" s="72" customFormat="1" ht="27.95" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>89</v>
       </c>
@@ -16696,7 +16681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:64" ht="27.95" hidden="1" customHeight="1">
+    <row r="58" spans="1:64" ht="27.95" customHeight="1">
       <c r="A58" s="82" t="s">
         <v>109</v>
       </c>
@@ -16896,7 +16881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:64" s="72" customFormat="1" ht="27.95" hidden="1" customHeight="1">
+    <row r="59" spans="1:64" s="72" customFormat="1" ht="27.95" customHeight="1">
       <c r="A59" s="5" t="s">
         <v>112</v>
       </c>
@@ -22871,7 +22856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:64" ht="27.95" hidden="1" customHeight="1">
+    <row r="90" spans="1:64" ht="27.95" customHeight="1">
       <c r="A90" s="82" t="s">
         <v>144</v>
       </c>
@@ -23103,7 +23088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:64" s="72" customFormat="1" ht="27.95" hidden="1" customHeight="1">
+    <row r="91" spans="1:64" s="72" customFormat="1" ht="27.95" customHeight="1">
       <c r="A91" s="81" t="s">
         <v>144</v>
       </c>
@@ -23324,7 +23309,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:64" ht="27.95" hidden="1" customHeight="1">
+    <row r="92" spans="1:64" ht="27.95" customHeight="1">
       <c r="A92" s="14" t="s">
         <v>144</v>
       </c>
@@ -23545,7 +23530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:64" ht="27.95" hidden="1" customHeight="1">
+    <row r="93" spans="1:64" ht="27.95" customHeight="1">
       <c r="A93" s="14" t="s">
         <v>144</v>
       </c>
@@ -23766,7 +23751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:64" ht="27.95" hidden="1" customHeight="1">
+    <row r="94" spans="1:64" ht="27.95" customHeight="1">
       <c r="A94" s="14" t="s">
         <v>144</v>
       </c>
@@ -23987,7 +23972,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:64" ht="27.95" hidden="1" customHeight="1">
+    <row r="95" spans="1:64" ht="27.95" customHeight="1">
       <c r="A95" s="14" t="s">
         <v>144</v>
       </c>
@@ -24208,7 +24193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:64" ht="33" hidden="1" customHeight="1">
+    <row r="96" spans="1:64" ht="33" customHeight="1">
       <c r="A96" s="82" t="s">
         <v>149</v>
       </c>
@@ -24400,7 +24385,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:64" s="72" customFormat="1" ht="37.5" hidden="1" customHeight="1">
+    <row r="97" spans="1:64" s="72" customFormat="1" ht="37.5" customHeight="1">
       <c r="A97" s="5" t="s">
         <v>153</v>
       </c>
@@ -24600,7 +24585,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:64" ht="27.95" hidden="1" customHeight="1">
+    <row r="98" spans="1:64" ht="27.95" customHeight="1">
       <c r="A98" s="14" t="s">
         <v>153</v>
       </c>
@@ -24780,7 +24765,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:64" ht="27.95" hidden="1" customHeight="1">
+    <row r="99" spans="1:64" ht="27.95" customHeight="1">
       <c r="A99" s="14" t="s">
         <v>153</v>
       </c>
@@ -24962,7 +24947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:64" ht="27.95" hidden="1" customHeight="1">
+    <row r="100" spans="1:64" ht="27.95" customHeight="1">
       <c r="A100" s="14" t="s">
         <v>153</v>
       </c>
@@ -25144,7 +25129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:64" ht="27.95" hidden="1" customHeight="1">
+    <row r="101" spans="1:64" ht="27.95" customHeight="1">
       <c r="A101" s="14" t="s">
         <v>153</v>
       </c>
@@ -25326,7 +25311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:64" ht="27.95" hidden="1" customHeight="1">
+    <row r="102" spans="1:64" ht="27.95" customHeight="1">
       <c r="A102" s="14" t="s">
         <v>153</v>
       </c>
@@ -26616,7 +26601,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:64" ht="27.95" hidden="1" customHeight="1">
+    <row r="109" spans="1:64" ht="27.95" customHeight="1">
       <c r="A109" s="82" t="s">
         <v>164</v>
       </c>
@@ -26813,7 +26798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:64" s="72" customFormat="1" ht="27.95" hidden="1" customHeight="1">
+    <row r="110" spans="1:64" s="72" customFormat="1" ht="27.95" customHeight="1">
       <c r="A110" s="81" t="s">
         <v>164</v>
       </c>
@@ -27000,7 +26985,7 @@
       </c>
       <c r="BL110" s="74"/>
     </row>
-    <row r="111" spans="1:64" ht="27.95" hidden="1" customHeight="1">
+    <row r="111" spans="1:64" ht="27.95" customHeight="1">
       <c r="A111" s="14" t="s">
         <v>164</v>
       </c>
@@ -27186,7 +27171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:64" ht="27.95" hidden="1" customHeight="1">
+    <row r="112" spans="1:64" ht="27.95" customHeight="1">
       <c r="A112" s="14" t="s">
         <v>164</v>
       </c>
@@ -27372,7 +27357,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:63" ht="27.95" hidden="1" customHeight="1">
+    <row r="113" spans="1:63" ht="27.95" customHeight="1">
       <c r="A113" s="14" t="s">
         <v>164</v>
       </c>
@@ -27558,7 +27543,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:63" ht="27.95" hidden="1" customHeight="1">
+    <row r="114" spans="1:63" ht="27.95" customHeight="1">
       <c r="A114" s="14" t="s">
         <v>164</v>
       </c>
@@ -28895,7 +28880,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:63" ht="27.95" hidden="1" customHeight="1">
+    <row r="121" spans="1:63" ht="27.95" customHeight="1">
       <c r="A121" s="82" t="s">
         <v>179</v>
       </c>
@@ -29055,8 +29040,8 @@
       <c r="AZ121" s="91">
         <v>0</v>
       </c>
-      <c r="BA121" s="91" t="s">
-        <v>17</v>
+      <c r="BA121" s="91">
+        <v>0</v>
       </c>
       <c r="BB121" s="91" t="s">
         <v>17</v>
@@ -29089,7 +29074,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:63" s="72" customFormat="1" ht="27.95" hidden="1" customHeight="1">
+    <row r="122" spans="1:63" s="72" customFormat="1" ht="27.95" customHeight="1">
       <c r="A122" s="81" t="s">
         <v>179</v>
       </c>
@@ -29237,8 +29222,8 @@
       <c r="AZ122" s="89">
         <v>0</v>
       </c>
-      <c r="BA122" s="89" t="s">
-        <v>17</v>
+      <c r="BA122" s="89">
+        <v>0</v>
       </c>
       <c r="BB122" s="89" t="s">
         <v>17</v>
@@ -29271,7 +29256,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:63" ht="27.95" hidden="1" customHeight="1">
+    <row r="123" spans="1:63" ht="27.95" customHeight="1">
       <c r="A123" s="14" t="s">
         <v>179</v>
       </c>
@@ -29419,8 +29404,8 @@
       <c r="AZ123" s="18">
         <v>0</v>
       </c>
-      <c r="BA123" s="18" t="s">
-        <v>17</v>
+      <c r="BA123" s="18">
+        <v>0</v>
       </c>
       <c r="BB123" s="18" t="s">
         <v>17</v>
@@ -29453,7 +29438,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:63" ht="27.95" hidden="1" customHeight="1">
+    <row r="124" spans="1:63" ht="27.95" customHeight="1">
       <c r="A124" s="14" t="s">
         <v>179</v>
       </c>
@@ -29601,8 +29586,8 @@
       <c r="AZ124" s="18">
         <v>0</v>
       </c>
-      <c r="BA124" s="18" t="s">
-        <v>17</v>
+      <c r="BA124" s="18">
+        <v>0</v>
       </c>
       <c r="BB124" s="18" t="s">
         <v>17</v>
@@ -29635,7 +29620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:63" ht="27.95" hidden="1" customHeight="1">
+    <row r="125" spans="1:63" ht="27.95" customHeight="1">
       <c r="A125" s="14" t="s">
         <v>179</v>
       </c>
@@ -29783,8 +29768,8 @@
       <c r="AZ125" s="18">
         <v>0</v>
       </c>
-      <c r="BA125" s="18" t="s">
-        <v>17</v>
+      <c r="BA125" s="18">
+        <v>0</v>
       </c>
       <c r="BB125" s="18" t="s">
         <v>17</v>
@@ -29817,7 +29802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:63" ht="27.95" hidden="1" customHeight="1">
+    <row r="126" spans="1:63" ht="27.95" customHeight="1">
       <c r="A126" s="14" t="s">
         <v>179</v>
       </c>
@@ -29965,8 +29950,8 @@
       <c r="AZ126" s="18">
         <v>0</v>
       </c>
-      <c r="BA126" s="18" t="s">
-        <v>17</v>
+      <c r="BA126" s="18">
+        <v>0</v>
       </c>
       <c r="BB126" s="18" t="s">
         <v>17</v>
@@ -29999,7 +29984,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:63" ht="27.95" hidden="1" customHeight="1">
+    <row r="127" spans="1:63" ht="27.95" customHeight="1">
       <c r="A127" s="14" t="s">
         <v>179</v>
       </c>
@@ -30147,8 +30132,8 @@
       <c r="AZ127" s="18">
         <v>0</v>
       </c>
-      <c r="BA127" s="18" t="s">
-        <v>17</v>
+      <c r="BA127" s="18">
+        <v>0</v>
       </c>
       <c r="BB127" s="18" t="s">
         <v>17</v>
@@ -30181,7 +30166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:63" s="72" customFormat="1" ht="27.95" hidden="1" customHeight="1">
+    <row r="128" spans="1:63" s="72" customFormat="1" ht="27.95" customHeight="1">
       <c r="A128" s="5" t="s">
         <v>184</v>
       </c>
@@ -30354,8 +30339,8 @@
       <c r="AZ128" s="11">
         <v>12</v>
       </c>
-      <c r="BA128" s="11" t="s">
-        <v>17</v>
+      <c r="BA128" s="11">
+        <v>83</v>
       </c>
       <c r="BB128" s="11" t="s">
         <v>17</v>
@@ -30388,7 +30373,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:64" ht="27.95" hidden="1" customHeight="1">
+    <row r="129" spans="1:64" ht="27.95" customHeight="1">
       <c r="A129" s="14" t="s">
         <v>184</v>
       </c>
@@ -30536,8 +30521,8 @@
       <c r="AZ129" s="26">
         <v>1</v>
       </c>
-      <c r="BA129" s="26" t="s">
-        <v>17</v>
+      <c r="BA129" s="26">
+        <v>1</v>
       </c>
       <c r="BB129" s="26" t="s">
         <v>17</v>
@@ -30570,7 +30555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:64" ht="27.95" hidden="1" customHeight="1">
+    <row r="130" spans="1:64" ht="27.95" customHeight="1">
       <c r="A130" s="14" t="s">
         <v>184</v>
       </c>
@@ -30718,7 +30703,7 @@
       <c r="AZ130" s="26">
         <v>0</v>
       </c>
-      <c r="BA130" s="26" t="s">
+      <c r="BA130" s="26">
         <v>17</v>
       </c>
       <c r="BB130" s="26" t="s">
@@ -30752,7 +30737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:64" ht="27.95" hidden="1" customHeight="1">
+    <row r="131" spans="1:64" ht="27.95" customHeight="1">
       <c r="A131" s="14" t="s">
         <v>184</v>
       </c>
@@ -30900,8 +30885,8 @@
       <c r="AZ131" s="26">
         <v>0</v>
       </c>
-      <c r="BA131" s="26" t="s">
-        <v>17</v>
+      <c r="BA131" s="26">
+        <v>0</v>
       </c>
       <c r="BB131" s="26" t="s">
         <v>17</v>
@@ -30934,7 +30919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:64" ht="27.95" hidden="1" customHeight="1">
+    <row r="132" spans="1:64" ht="27.95" customHeight="1">
       <c r="A132" s="14" t="s">
         <v>184</v>
       </c>
@@ -31082,8 +31067,8 @@
       <c r="AZ132" s="26">
         <v>5</v>
       </c>
-      <c r="BA132" s="26" t="s">
-        <v>17</v>
+      <c r="BA132" s="26">
+        <v>53</v>
       </c>
       <c r="BB132" s="26" t="s">
         <v>17</v>
@@ -31116,7 +31101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:64" ht="27.95" hidden="1" customHeight="1">
+    <row r="133" spans="1:64" ht="27.95" customHeight="1">
       <c r="A133" s="14" t="s">
         <v>184</v>
       </c>
@@ -31264,8 +31249,8 @@
       <c r="AZ133" s="26">
         <v>6</v>
       </c>
-      <c r="BA133" s="26" t="s">
-        <v>17</v>
+      <c r="BA133" s="26">
+        <v>12</v>
       </c>
       <c r="BB133" s="26" t="s">
         <v>17</v>
@@ -31298,7 +31283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:64" ht="27.95" hidden="1" customHeight="1">
+    <row r="134" spans="1:64" ht="27.95" customHeight="1">
       <c r="A134" s="82" t="s">
         <v>189</v>
       </c>
@@ -31458,8 +31443,8 @@
       <c r="AZ134" s="90">
         <v>40</v>
       </c>
-      <c r="BA134" s="90" t="s">
-        <v>17</v>
+      <c r="BA134" s="90">
+        <v>32</v>
       </c>
       <c r="BB134" s="90" t="s">
         <v>17</v>
@@ -31492,7 +31477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:64" s="74" customFormat="1" ht="27.95" hidden="1" customHeight="1">
+    <row r="135" spans="1:64" s="74" customFormat="1" ht="27.95" customHeight="1">
       <c r="A135" s="5" t="s">
         <v>193</v>
       </c>
@@ -31703,7 +31688,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:64" s="75" customFormat="1" ht="27.95" hidden="1" customHeight="1">
+    <row r="136" spans="1:64" s="75" customFormat="1" ht="27.95" customHeight="1">
       <c r="A136" s="14" t="s">
         <v>193</v>
       </c>
@@ -31901,7 +31886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="1:64" s="75" customFormat="1" ht="27.95" hidden="1" customHeight="1">
+    <row r="137" spans="1:64" s="75" customFormat="1" ht="27.95" customHeight="1">
       <c r="A137" s="14" t="s">
         <v>193</v>
       </c>
@@ -32100,7 +32085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:64" s="75" customFormat="1" ht="27.95" hidden="1" customHeight="1">
+    <row r="138" spans="1:64" s="75" customFormat="1" ht="27.95" customHeight="1">
       <c r="A138" s="14" t="s">
         <v>193</v>
       </c>
@@ -32298,7 +32283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:64" s="75" customFormat="1" ht="27.95" hidden="1" customHeight="1">
+    <row r="139" spans="1:64" s="75" customFormat="1" ht="27.95" customHeight="1">
       <c r="A139" s="14" t="s">
         <v>193</v>
       </c>
@@ -32496,7 +32481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="1:64" s="75" customFormat="1" ht="27.95" hidden="1" customHeight="1">
+    <row r="140" spans="1:64" s="75" customFormat="1" ht="27.95" customHeight="1">
       <c r="A140" s="14" t="s">
         <v>193</v>
       </c>
@@ -32694,7 +32679,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:64" s="72" customFormat="1" ht="27.95" hidden="1" customHeight="1">
+    <row r="141" spans="1:64" s="72" customFormat="1" ht="27.95" customHeight="1">
       <c r="A141" s="81" t="s">
         <v>193</v>
       </c>
@@ -32859,8 +32844,8 @@
       <c r="AZ141" s="18">
         <v>1</v>
       </c>
-      <c r="BA141" s="89" t="s">
-        <v>17</v>
+      <c r="BA141" s="89">
+        <v>1</v>
       </c>
       <c r="BB141" s="89" t="s">
         <v>17</v>
@@ -32894,7 +32879,7 @@
       </c>
       <c r="BL141" s="74"/>
     </row>
-    <row r="142" spans="1:64" s="72" customFormat="1" ht="27.95" hidden="1" customHeight="1">
+    <row r="142" spans="1:64" s="72" customFormat="1" ht="27.95" customHeight="1">
       <c r="A142" s="5" t="s">
         <v>196</v>
       </c>
@@ -33054,8 +33039,8 @@
       <c r="AZ142" s="9">
         <v>0.1</v>
       </c>
-      <c r="BA142" s="9" t="s">
-        <v>17</v>
+      <c r="BA142" s="9">
+        <v>0.04</v>
       </c>
       <c r="BB142" s="9" t="s">
         <v>17</v>
@@ -33088,7 +33073,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:64" ht="27.95" hidden="1" customHeight="1">
+    <row r="143" spans="1:64" ht="27.95" customHeight="1">
       <c r="A143" s="14" t="s">
         <v>196</v>
       </c>
@@ -33236,7 +33221,7 @@
       <c r="AZ143" s="26">
         <v>22</v>
       </c>
-      <c r="BA143" s="26" t="s">
+      <c r="BA143" s="26">
         <v>17</v>
       </c>
       <c r="BB143" s="26" t="s">
@@ -33270,7 +33255,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:64" ht="27.95" hidden="1" customHeight="1">
+    <row r="144" spans="1:64" ht="27.95" customHeight="1">
       <c r="A144" s="14" t="s">
         <v>196</v>
       </c>
@@ -33418,8 +33403,8 @@
       <c r="AZ144" s="26">
         <v>5</v>
       </c>
-      <c r="BA144" s="26" t="s">
-        <v>17</v>
+      <c r="BA144" s="26">
+        <v>3</v>
       </c>
       <c r="BB144" s="26" t="s">
         <v>17</v>
@@ -33452,7 +33437,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:63" ht="27.95" hidden="1" customHeight="1">
+    <row r="145" spans="1:63" ht="27.95" customHeight="1">
       <c r="A145" s="14" t="s">
         <v>196</v>
       </c>
@@ -33600,8 +33585,8 @@
       <c r="AZ145" s="26">
         <v>2</v>
       </c>
-      <c r="BA145" s="26" t="s">
-        <v>17</v>
+      <c r="BA145" s="26">
+        <v>5</v>
       </c>
       <c r="BB145" s="26" t="s">
         <v>17</v>
@@ -33634,7 +33619,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:63" ht="27.95" hidden="1" customHeight="1">
+    <row r="146" spans="1:63" ht="27.95" customHeight="1">
       <c r="A146" s="14" t="s">
         <v>196</v>
       </c>
@@ -33782,8 +33767,8 @@
       <c r="AZ146" s="26">
         <v>30</v>
       </c>
-      <c r="BA146" s="26" t="s">
-        <v>17</v>
+      <c r="BA146" s="26">
+        <v>12</v>
       </c>
       <c r="BB146" s="26" t="s">
         <v>17</v>
@@ -33816,7 +33801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:63" ht="27.95" hidden="1" customHeight="1">
+    <row r="147" spans="1:63" ht="27.95" customHeight="1">
       <c r="A147" s="14" t="s">
         <v>196</v>
       </c>
@@ -33964,8 +33949,8 @@
       <c r="AZ147" s="26">
         <v>5</v>
       </c>
-      <c r="BA147" s="26" t="s">
-        <v>17</v>
+      <c r="BA147" s="26">
+        <v>2</v>
       </c>
       <c r="BB147" s="26" t="s">
         <v>17</v>
@@ -33998,7 +33983,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:63" ht="27.75" hidden="1" customHeight="1">
+    <row r="148" spans="1:63" ht="27.75" customHeight="1">
       <c r="A148" s="14" t="s">
         <v>196</v>
       </c>
@@ -34146,8 +34131,8 @@
       <c r="AZ148" s="26">
         <v>15</v>
       </c>
-      <c r="BA148" s="26" t="s">
-        <v>17</v>
+      <c r="BA148" s="26">
+        <v>8</v>
       </c>
       <c r="BB148" s="26" t="s">
         <v>17</v>
@@ -39860,7 +39845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:63" s="72" customFormat="1" ht="57.75" hidden="1" customHeight="1">
+    <row r="175" spans="1:63" s="72" customFormat="1" ht="57.75" customHeight="1">
       <c r="A175" s="5" t="s">
         <v>217</v>
       </c>
@@ -40054,8 +40039,8 @@
       <c r="AZ175" s="9">
         <v>1</v>
       </c>
-      <c r="BA175" s="9" t="s">
-        <v>17</v>
+      <c r="BA175" s="9">
+        <v>1</v>
       </c>
       <c r="BB175" s="9" t="s">
         <v>17</v>
@@ -40088,7 +40073,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:63" ht="27.95" hidden="1" customHeight="1">
+    <row r="176" spans="1:63" ht="27.95" customHeight="1">
       <c r="A176" s="14" t="s">
         <v>217</v>
       </c>
@@ -40236,10 +40221,10 @@
         <v>1</v>
       </c>
       <c r="AZ176" s="18">
-        <v>1</v>
-      </c>
-      <c r="BA176" s="18" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="BA176" s="18">
+        <v>0</v>
       </c>
       <c r="BB176" s="18" t="s">
         <v>17</v>
@@ -40272,7 +40257,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="177" spans="1:63" ht="27.95" hidden="1" customHeight="1">
+    <row r="177" spans="1:63" ht="27.95" customHeight="1">
       <c r="A177" s="14" t="s">
         <v>217</v>
       </c>
@@ -40420,10 +40405,10 @@
         <v>1</v>
       </c>
       <c r="AZ177" s="18">
-        <v>1</v>
-      </c>
-      <c r="BA177" s="18" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="BA177" s="18">
+        <v>0</v>
       </c>
       <c r="BB177" s="18" t="s">
         <v>17</v>
@@ -40456,7 +40441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="178" spans="1:63" ht="27.95" hidden="1" customHeight="1">
+    <row r="178" spans="1:63" ht="27.95" customHeight="1">
       <c r="A178" s="14" t="s">
         <v>217</v>
       </c>
@@ -40604,10 +40589,10 @@
         <v>1</v>
       </c>
       <c r="AZ178" s="18">
-        <v>1</v>
-      </c>
-      <c r="BA178" s="18" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="BA178" s="18">
+        <v>0</v>
       </c>
       <c r="BB178" s="18" t="s">
         <v>17</v>
@@ -40640,7 +40625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:63" ht="27.95" hidden="1" customHeight="1">
+    <row r="179" spans="1:63" ht="27.95" customHeight="1">
       <c r="A179" s="14" t="s">
         <v>217</v>
       </c>
@@ -40788,10 +40773,10 @@
         <v>1</v>
       </c>
       <c r="AZ179" s="18">
-        <v>1</v>
-      </c>
-      <c r="BA179" s="18" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="BA179" s="18">
+        <v>0</v>
       </c>
       <c r="BB179" s="18" t="s">
         <v>17</v>
@@ -40824,7 +40809,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:63" ht="27.95" hidden="1" customHeight="1">
+    <row r="180" spans="1:63" ht="27.95" customHeight="1">
       <c r="A180" s="14" t="s">
         <v>217</v>
       </c>
@@ -40972,10 +40957,10 @@
         <v>1</v>
       </c>
       <c r="AZ180" s="18">
-        <v>1</v>
-      </c>
-      <c r="BA180" s="18" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="BA180" s="18">
+        <v>0</v>
       </c>
       <c r="BB180" s="18" t="s">
         <v>17</v>
@@ -41008,7 +40993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:63" ht="27.95" hidden="1" customHeight="1">
+    <row r="181" spans="1:63" ht="27.95" customHeight="1">
       <c r="A181" s="82" t="s">
         <v>223</v>
       </c>
@@ -41202,7 +41187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" spans="1:63" s="72" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="182" spans="1:63" s="72" customFormat="1" ht="47.25" customHeight="1">
       <c r="A182" s="5" t="s">
         <v>227</v>
       </c>
@@ -41439,7 +41424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="183" spans="1:63" ht="27.95" hidden="1" customHeight="1">
+    <row r="183" spans="1:63" ht="27.95" customHeight="1">
       <c r="A183" s="14" t="s">
         <v>227</v>
       </c>
@@ -41664,7 +41649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="1:63" ht="27.95" hidden="1" customHeight="1">
+    <row r="184" spans="1:63" ht="27.95" customHeight="1">
       <c r="A184" s="14" t="s">
         <v>227</v>
       </c>
@@ -41889,7 +41874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" spans="1:63" ht="27.95" hidden="1" customHeight="1">
+    <row r="185" spans="1:63" ht="27.95" customHeight="1">
       <c r="A185" s="14" t="s">
         <v>227</v>
       </c>
@@ -42114,7 +42099,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="1:63" ht="27.95" hidden="1" customHeight="1">
+    <row r="186" spans="1:63" ht="27.95" customHeight="1">
       <c r="A186" s="14" t="s">
         <v>227</v>
       </c>
@@ -42339,7 +42324,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:63" ht="27.95" hidden="1" customHeight="1">
+    <row r="187" spans="1:63" ht="27.95" customHeight="1">
       <c r="A187" s="14" t="s">
         <v>227</v>
       </c>
@@ -42564,7 +42549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:63" s="72" customFormat="1" ht="27.95" hidden="1" customHeight="1">
+    <row r="188" spans="1:63" s="72" customFormat="1" ht="27.95" customHeight="1">
       <c r="A188" s="81" t="s">
         <v>227</v>
       </c>
@@ -42789,7 +42774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:63" s="72" customFormat="1" ht="39" hidden="1" customHeight="1">
+    <row r="189" spans="1:63" s="72" customFormat="1" ht="39" customHeight="1">
       <c r="A189" s="5" t="s">
         <v>231</v>
       </c>
@@ -45518,11 +45503,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:BK203" xr:uid="{6102CFEF-D75F-462F-8D42-83B1B0352520}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Оператор"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A2:BK203">
       <sortCondition ref="A1:A203"/>
     </sortState>
@@ -56599,27 +56579,27 @@
       </c>
     </row>
     <row r="440" spans="1:7" ht="36">
-      <c r="A440" s="113">
+      <c r="A440" s="58">
         <f>ROW(Таблица1[[#This Row],[Номер п/п]])-1</f>
         <v>439</v>
       </c>
-      <c r="B440" s="114" t="s">
+      <c r="B440" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="C440" s="114" t="s">
+      <c r="C440" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="D440" s="115">
+      <c r="D440" s="60">
         <v>43</v>
       </c>
-      <c r="E440" s="114">
+      <c r="E440" s="59">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[ID KPI]],'KPI для заполнения'!A:BL,Таблица1[[#This Row],[Неделя]]+10,0),"Нет")</f>
         <v>0.97435897435897434</v>
       </c>
-      <c r="F440" s="116" t="s">
+      <c r="F440" s="61" t="s">
         <v>276</v>
       </c>
-      <c r="G440" s="117" t="s">
+      <c r="G440" s="62" t="s">
         <v>603</v>
       </c>
     </row>
